--- a/public/comida 6-1-2023.xlsx
+++ b/public/comida 6-1-2023.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,29 +430,55 @@
         <v>tomas ignacio escalante urciuolo</v>
       </c>
       <c r="C2" t="str">
-        <v>milanesa</v>
+        <v>pollo a la parrilla</v>
       </c>
       <c r="D2" t="str">
-        <v>asdasdasd</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>milanesa:</v>
+        <v>pollo a la parrilla:</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>6-1-2023</v>
+      </c>
+      <c r="B3" t="str">
+        <v>tomas ignacio escalante urciuolo</v>
+      </c>
+      <c r="C3" t="str">
+        <v>milanesa</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
       <c r="F3" t="str">
-        <v>:</v>
+        <v>milanesa:</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>6-1-2023</v>
+      </c>
+      <c r="B4" t="str">
+        <v>martin  payen</v>
+      </c>
+      <c r="C4" t="str">
+        <v>pollo a la parrilla</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>